--- a/tables/regression.xlsx
+++ b/tables/regression.xlsx
@@ -402,10 +402,10 @@
         <v>0.99</v>
       </c>
       <c r="F2" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -423,10 +423,10 @@
         <v>54.566</v>
       </c>
       <c r="F3" t="n">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tables/regression.xlsx
+++ b/tables/regression.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">beta_std</t>
   </si>
   <si>
@@ -33,6 +39,12 @@
   </si>
   <si>
     <t xml:space="preserve">n_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+R+Z</t>
   </si>
 </sst>
 </file>
@@ -386,47 +398,65 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.423</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" t="n">
+      <c r="F2"/>
+      <c r="G2" t="n">
         <v>0.99</v>
       </c>
-      <c r="F2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G2" t="n">
-        <v>32</v>
+      <c r="H2" t="n">
+        <v>22</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" t="n">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>87.25</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>54.566</v>
       </c>
-      <c r="F3" t="n">
-        <v>26</v>
-      </c>
-      <c r="G3" t="n">
-        <v>28</v>
+      <c r="H3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tables/regression.xlsx
+++ b/tables/regression.xlsx
@@ -426,10 +426,10 @@
         <v>0.99</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -453,10 +453,10 @@
         <v>54.566</v>
       </c>
       <c r="H3" t="n">
+        <v>24</v>
+      </c>
+      <c r="I3" t="n">
         <v>16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tables/regression.xlsx
+++ b/tables/regression.xlsx
@@ -426,10 +426,10 @@
         <v>0.99</v>
       </c>
       <c r="H2" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -453,10 +453,10 @@
         <v>54.566</v>
       </c>
       <c r="H3" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
